--- a/temp/study material.xlsx
+++ b/temp/study material.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91949\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91949\Desktop\uneducated-coder\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B40809-BC93-4E80-A54A-EDDBF0E441D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0844B0-4ADE-40A6-8536-C852CE38A84A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JS" sheetId="1" r:id="rId1"/>
     <sheet name="DSA" sheetId="8" r:id="rId2"/>
     <sheet name="Node" sheetId="2" r:id="rId3"/>
-    <sheet name="MongoDB" sheetId="3" r:id="rId4"/>
-    <sheet name="common DB" sheetId="4" r:id="rId5"/>
-    <sheet name="express" sheetId="5" r:id="rId6"/>
-    <sheet name="Computer science" sheetId="7" r:id="rId7"/>
-    <sheet name="React" sheetId="6" r:id="rId8"/>
+    <sheet name="Node GIT" sheetId="9" r:id="rId4"/>
+    <sheet name="MongoDB" sheetId="3" r:id="rId5"/>
+    <sheet name="common DB" sheetId="4" r:id="rId6"/>
+    <sheet name="express" sheetId="5" r:id="rId7"/>
+    <sheet name="Computer science" sheetId="7" r:id="rId8"/>
+    <sheet name="React" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>What is Javascript</t>
   </si>
@@ -361,6 +362,18 @@
   </si>
   <si>
     <t>difference b/w ws and webrtc</t>
+  </si>
+  <si>
+    <t>What is Node.js?</t>
+  </si>
+  <si>
+    <t>How Node.js works?</t>
+  </si>
+  <si>
+    <t>Where Node.js used for?</t>
+  </si>
+  <si>
+    <t>REPL</t>
   </si>
 </sst>
 </file>
@@ -800,12 +813,53 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="63.33203125" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD0E838A-79DB-4648-BF84-239CF84E8B43}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="77.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE6F591-F378-4794-8EC5-154CA394494A}">
   <dimension ref="A1:B24"/>
   <sheetViews>
@@ -968,7 +1022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90D9F36-2DF1-4026-BBDF-7BB25E3656DE}">
   <dimension ref="A1:A7"/>
   <sheetViews>
@@ -1022,7 +1076,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9239E2BD-23D4-4F29-A572-03C4CC080FD6}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1034,7 +1088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D642969-0CAE-499D-9E50-3C8C1AB1B467}">
   <dimension ref="A1:C37"/>
   <sheetViews>
@@ -1248,11 +1302,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD5E2BBA-BFCB-48C0-A46F-42B9AF3F662A}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>

--- a/temp/study material.xlsx
+++ b/temp/study material.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91949\Desktop\uneducated-coder\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0844B0-4ADE-40A6-8536-C852CE38A84A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4E5C1E-D692-426E-AF88-B815F94CCA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="JS" sheetId="1" r:id="rId1"/>
-    <sheet name="DSA" sheetId="8" r:id="rId2"/>
-    <sheet name="Node" sheetId="2" r:id="rId3"/>
-    <sheet name="Node GIT" sheetId="9" r:id="rId4"/>
-    <sheet name="MongoDB" sheetId="3" r:id="rId5"/>
-    <sheet name="common DB" sheetId="4" r:id="rId6"/>
-    <sheet name="express" sheetId="5" r:id="rId7"/>
-    <sheet name="Computer science" sheetId="7" r:id="rId8"/>
-    <sheet name="React" sheetId="6" r:id="rId9"/>
+    <sheet name="HTML" sheetId="10" r:id="rId1"/>
+    <sheet name="CSS" sheetId="11" r:id="rId2"/>
+    <sheet name="JS" sheetId="1" r:id="rId3"/>
+    <sheet name="DSA" sheetId="8" r:id="rId4"/>
+    <sheet name="Node" sheetId="2" r:id="rId5"/>
+    <sheet name="Node GIT" sheetId="9" r:id="rId6"/>
+    <sheet name="MongoDB" sheetId="3" r:id="rId7"/>
+    <sheet name="common DB" sheetId="4" r:id="rId8"/>
+    <sheet name="express" sheetId="5" r:id="rId9"/>
+    <sheet name="Computer science" sheetId="7" r:id="rId10"/>
+    <sheet name="React" sheetId="6" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>What is Javascript</t>
   </si>
@@ -374,6 +376,15 @@
   </si>
   <si>
     <t>REPL</t>
+  </si>
+  <si>
+    <t>What is HTML?</t>
+  </si>
+  <si>
+    <t>What is Markup language?</t>
+  </si>
+  <si>
+    <t>HTML vs HTML5</t>
   </si>
 </sst>
 </file>
@@ -712,66 +723,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E22862-179B-4147-A3BF-4A6DE02934C2}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
-    <col min="2" max="2" width="45.21875" customWidth="1"/>
-    <col min="3" max="3" width="69.77734375" customWidth="1"/>
+    <col min="1" max="1" width="43.44140625" customWidth="1"/>
+    <col min="2" max="2" width="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>89</v>
+        <v>102</v>
+      </c>
+      <c r="B1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -779,316 +754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA2F53F-3B2D-4061-A513-BAC0D67090E3}">
-  <dimension ref="A16:B16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="46.6640625" customWidth="1"/>
-    <col min="2" max="2" width="70.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="16" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D77997-2DA0-42EF-9E5C-889A7E65CAAA}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="63.33203125" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD0E838A-79DB-4648-BF84-239CF84E8B43}">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="77.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE6F591-F378-4794-8EC5-154CA394494A}">
-  <dimension ref="A1:B24"/>
-  <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="27.109375" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="31.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90D9F36-2DF1-4026-BBDF-7BB25E3656DE}">
-  <dimension ref="A1:A7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="51.6640625" customWidth="1"/>
-    <col min="2" max="2" width="61.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9239E2BD-23D4-4F29-A572-03C4CC080FD6}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D642969-0CAE-499D-9E50-3C8C1AB1B467}">
   <dimension ref="A1:C37"/>
   <sheetViews>
@@ -1302,7 +968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD5E2BBA-BFCB-48C0-A46F-42B9AF3F662A}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1350,4 +1016,395 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF84ED45-F8BA-44AA-BA33-2EAF018F4B36}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="2" max="2" width="45.21875" customWidth="1"/>
+    <col min="3" max="3" width="69.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA2F53F-3B2D-4061-A513-BAC0D67090E3}">
+  <dimension ref="A16:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="46.6640625" customWidth="1"/>
+    <col min="2" max="2" width="70.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="16" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D77997-2DA0-42EF-9E5C-889A7E65CAAA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="63.33203125" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD0E838A-79DB-4648-BF84-239CF84E8B43}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="77.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE6F591-F378-4794-8EC5-154CA394494A}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.109375" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="31.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90D9F36-2DF1-4026-BBDF-7BB25E3656DE}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="51.6640625" customWidth="1"/>
+    <col min="2" max="2" width="61.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9239E2BD-23D4-4F29-A572-03C4CC080FD6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/temp/study material.xlsx
+++ b/temp/study material.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91949\Desktop\uneducated-coder\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4E5C1E-D692-426E-AF88-B815F94CCA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7D2CB6-756C-421F-828D-EFDE98AF43D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="10" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>What is Javascript</t>
   </si>
@@ -386,12 +386,39 @@
   <si>
     <t>HTML vs HTML5</t>
   </si>
+  <si>
+    <t>TOPIC</t>
+  </si>
+  <si>
+    <t>YOUTUBE</t>
+  </si>
+  <si>
+    <t>ARTICLES</t>
+  </si>
+  <si>
+    <t>DNS</t>
+  </si>
+  <si>
+    <t>GIT</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=27r4Bzuj5NQ</t>
+  </si>
+  <si>
+    <t>https://github.com/rincemathew/uneducated-coder/tree/master/undeucated/8.1.%20COMMON%20PART%201#dns</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/domain-name-system-dns-in-application-layer/
+https://www.cloudflare.com/learning/dns/what-is-dns/
+https://www.freecodecamp.org/news/what-is-dns-for-beginners/
+https://www.freecodecamp.org/news/what-is-dns/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,6 +430,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -429,7 +464,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -442,6 +477,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -726,7 +776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E22862-179B-4147-A3BF-4A6DE02934C2}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -756,214 +806,359 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D642969-0CAE-499D-9E50-3C8C1AB1B467}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.109375" customWidth="1"/>
+    <col min="1" max="1" width="41.109375" style="9" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="40.44140625" customWidth="1"/>
+    <col min="4" max="4" width="54.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C9" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
         <v>97</v>
       </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{FB60CCCA-D091-4F70-844A-EDF832845588}"/>
+    <hyperlink ref="D4" r:id="rId2" location="dns" xr:uid="{B848356C-96C4-46EE-B389-986686DF73AE}"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://www.geeksforgeeks.org/domain-name-system-dns-in-application-layer/" xr:uid="{F6293F9A-BBD3-436B-A434-184BC92CA1C5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
